--- a/reading_data_in/Trouble data sheet.xlsx
+++ b/reading_data_in/Trouble data sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb0fc20da32c383f/文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuggingWolf\Documents\GitHub\CITS3200-repo\reading_data_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="920" documentId="8_{B14591C1-3818-4F46-97E1-A500281468B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5295B117-1E40-48FF-A741-8A33BDA22D73}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D751C969-1BD9-4036-94B5-DBEB04B278CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="4" xr2:uid="{5AB95E3D-3D8A-45F4-8DC9-BC08E99A1E29}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="778">
   <si>
     <t>Box ID:</t>
   </si>
@@ -2457,6 +2457,10 @@
   </si>
   <si>
     <t>I don’t know, only accept combination of capital letter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2644,9 +2648,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2671,6 +2672,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -15087,7 +15091,7 @@
   <dimension ref="A1:Q108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15210,646 +15214,649 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>486</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <v>44743</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>490</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="27" t="s">
         <v>492</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="29" t="s">
+      <c r="Q8" s="28" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>762</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>772</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
         <v>767</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="20" t="s">
         <v>767</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="25" t="s">
         <v>768</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="20" t="s">
         <v>772</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="20" t="s">
         <v>772</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="20" t="s">
         <v>767</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="24" t="s">
         <v>774</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="20" t="s">
         <v>776</v>
       </c>
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <v>3</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>763</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="D10" t="s">
+        <v>777</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="20" t="s">
         <v>775</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="20" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>4</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="21">
         <v>6</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="21">
         <v>7</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>8</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="21">
         <v>9</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>10</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="21">
         <v>11</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="21">
         <v>12</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="21">
         <v>13</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="21">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="21">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="21">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
+      <c r="A24" s="21">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="21">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="A26" s="21">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
+      <c r="A27" s="21">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="21">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
+      <c r="A29" s="21">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
+      <c r="A30" s="21">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+      <c r="A31" s="21">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="21">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
+      <c r="A33" s="21">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
+      <c r="A34" s="21">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
+      <c r="A35" s="21">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="A36" s="21">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
+      <c r="A37" s="21">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
+      <c r="A38" s="21">
         <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
+      <c r="A39" s="21">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
+      <c r="A40" s="21">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
+      <c r="A41" s="21">
         <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
+      <c r="A42" s="21">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
+      <c r="A43" s="21">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22">
+      <c r="A44" s="21">
         <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
+      <c r="A45" s="21">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22">
+      <c r="A46" s="21">
         <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
+      <c r="A47" s="21">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
+      <c r="A48" s="21">
         <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
+      <c r="A49" s="21">
         <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22">
+      <c r="A50" s="21">
         <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22">
+      <c r="A51" s="21">
         <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22">
+      <c r="A52" s="21">
         <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22">
+      <c r="A53" s="21">
         <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
+      <c r="A54" s="21">
         <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22">
+      <c r="A55" s="21">
         <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="22">
+      <c r="A56" s="21">
         <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22">
+      <c r="A57" s="21">
         <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="22">
+      <c r="A58" s="21">
         <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22">
+      <c r="A59" s="21">
         <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
+      <c r="A60" s="21">
         <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22">
+      <c r="A61" s="21">
         <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22">
+      <c r="A62" s="21">
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22">
+      <c r="A63" s="21">
         <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="22">
+      <c r="A64" s="21">
         <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
+      <c r="A65" s="21">
         <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22">
+      <c r="A66" s="21">
         <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22">
+      <c r="A67" s="21">
         <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22">
+      <c r="A68" s="21">
         <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22">
+      <c r="A69" s="21">
         <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
+      <c r="A70" s="21">
         <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22">
+      <c r="A71" s="21">
         <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22">
+      <c r="A72" s="21">
         <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22">
+      <c r="A73" s="21">
         <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="22">
+      <c r="A74" s="21">
         <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="22">
+      <c r="A75" s="21">
         <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="22">
+      <c r="A76" s="21">
         <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="22">
+      <c r="A77" s="21">
         <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="22">
+      <c r="A78" s="21">
         <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="22">
+      <c r="A79" s="21">
         <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="22">
+      <c r="A80" s="21">
         <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="22">
+      <c r="A81" s="21">
         <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="22">
+      <c r="A82" s="21">
         <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="22">
+      <c r="A83" s="21">
         <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="22">
+      <c r="A84" s="21">
         <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="22">
+      <c r="A85" s="21">
         <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="22">
+      <c r="A86" s="21">
         <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="22">
+      <c r="A87" s="21">
         <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="22">
+      <c r="A88" s="21">
         <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="22">
+      <c r="A89" s="21">
         <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="22">
+      <c r="A90" s="21">
         <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="22">
+      <c r="A91" s="21">
         <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="22">
+      <c r="A92" s="21">
         <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="22">
+      <c r="A93" s="21">
         <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="22">
+      <c r="A94" s="21">
         <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="22">
+      <c r="A95" s="21">
         <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="22">
+      <c r="A96" s="21">
         <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="22">
+      <c r="A97" s="21">
         <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="22">
+      <c r="A98" s="21">
         <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="22">
+      <c r="A99" s="21">
         <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="22">
+      <c r="A100" s="21">
         <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="22">
+      <c r="A101" s="21">
         <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="22">
+      <c r="A102" s="21">
         <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="22">
+      <c r="A103" s="21">
         <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="22">
+      <c r="A104" s="21">
         <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="22">
+      <c r="A105" s="21">
         <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="22">
+      <c r="A106" s="21">
         <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="22">
+      <c r="A107" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="21">
+      <c r="A108" s="20">
         <v>101</v>
       </c>
     </row>
@@ -15873,129 +15880,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="30" t="s">
         <v>757</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="30" t="s">
         <v>759</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="30" t="s">
         <v>758</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="30" t="s">
         <v>770</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
